--- a/Docs/Data.xlsx
+++ b/Docs/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Type</t>
   </si>
@@ -55,12 +55,56 @@
   <si>
     <t>[dbo].[CauHinhHangHoa]: ListThuocTinh</t>
   </si>
+  <si>
+    <t>Bảng</t>
+  </si>
+  <si>
+    <t>Cột</t>
+  </si>
+  <si>
+    <t>CauHinhHangHoa</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Chưa cập nhật</t>
+  </si>
+  <si>
+    <t>Cập nhật DB</t>
+  </si>
+  <si>
+    <t>SoTienCam
+-&gt; TongTien float null</t>
+  </si>
+  <si>
+    <t>Lai
+-&gt; LaiSuat float not null</t>
+  </si>
+  <si>
+    <t>SoNgayVay
+-&gt; TongThoiGianVay</t>
+  </si>
+  <si>
+    <t>CuaHang</t>
+  </si>
+  <si>
+    <t>Thêm cột 
+- UserId nvarchar(128) not null
+(là chủ cửa hàng)</t>
+  </si>
+  <si>
+    <t>UserProfile</t>
+  </si>
+  <si>
+    <t>Xóa cột CuaHangId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +120,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -112,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -120,11 +176,75 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,155 +520,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G23"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D4:D20">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>EXACT($D4,"Chưa cập nhật")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D20">
+      <formula1>"Đã cập nhật,Chưa cập nhật"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Docs/Data.xlsx
+++ b/Docs/Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,9 +68,6 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>Chưa cập nhật</t>
-  </si>
-  <si>
     <t>Cập nhật DB</t>
   </si>
   <si>
@@ -98,12 +95,15 @@
   </si>
   <si>
     <t>Xóa cột CuaHangId</t>
+  </si>
+  <si>
+    <t>Đã cập nhật</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,56 +187,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -300,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -335,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -512,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,29 +474,29 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -568,15 +519,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -591,15 +542,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -610,52 +561,52 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -664,7 +615,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -673,7 +624,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -682,7 +633,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -691,7 +642,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -700,7 +651,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -709,7 +660,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -718,7 +669,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -727,7 +678,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -736,56 +687,56 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D20">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>EXACT($D4,"Chưa cập nhật")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Data.xlsx
+++ b/Docs/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Type</t>
   </si>
@@ -27,20 +27,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>CamDo, VayLai</t>
-  </si>
-  <si>
-    <t>EHinhThucLai</t>
-  </si>
-  <si>
-    <t>Lãi ngày (k/triệu)
-Lãi ngày (k/ngày)
-Lãi tháng(%)(30 ngày)
-Lãi tháng (định kì)
-Lãi tuần (%)
-Lãi tuần (VNĐ)</t>
-  </si>
-  <si>
     <t>VD một số cột</t>
   </si>
   <si>
@@ -48,9 +34,6 @@
   </si>
   <si>
     <t>["Ford", "BMW", "Fiat"]</t>
-  </si>
-  <si>
-    <t>ELinhVucHangHoa</t>
   </si>
   <si>
     <t>[dbo].[CauHinhHangHoa]: ListThuocTinh</t>
@@ -98,12 +81,82 @@
   </si>
   <si>
     <t>Đã cập nhật</t>
+  </si>
+  <si>
+    <t>Thêm cột:
+- CamDo_PrintTemplateType
+- VayLai_PrintTemplateType</t>
+  </si>
+  <si>
+    <t>Chưa cập nhật</t>
+  </si>
+  <si>
+    <t>KhachHang</t>
+  </si>
+  <si>
+    <t>Thêm cột:
+- ImageList nvarchar(max) null</t>
+  </si>
+  <si>
+    <t>HopDong_TransactionLog.MoneyDebit</t>
+  </si>
+  <si>
+    <t>Tiền ghi nợ/trả nợ của trans đó
+- là nợ khách hàng
++ là khách hàng nợ</t>
+  </si>
+  <si>
+    <t>HopDong_TransactionLog.MoneyAdd</t>
+  </si>
+  <si>
+    <t>Tiền vào hệ thống/khách hàng đóng vào</t>
+  </si>
+  <si>
+    <t>HopDong_TransactionLog.MoneyInterest</t>
+  </si>
+  <si>
+    <t>Tiền lãi của kỳ đóng đó</t>
+  </si>
+  <si>
+    <t>HopDong_TransactionLog.MoneySub</t>
+  </si>
+  <si>
+    <t>Tiền ra khỏi hệ thống/khách hàng rút ra</t>
+  </si>
+  <si>
+    <t>HopDong_TransactionLog.TotalMoneyLoan</t>
+  </si>
+  <si>
+    <t>Tổng tiền đang vay của hợp đồng</t>
+  </si>
+  <si>
+    <t>MoneyPay</t>
+  </si>
+  <si>
+    <t>Số tiền user thanh toán trans đó</t>
+  </si>
+  <si>
+    <t>MoneyPayNeed</t>
+  </si>
+  <si>
+    <t>Số tiền chính xác của trans đó cần thanh toán
+= MoneyInterest + Money other</t>
+  </si>
+  <si>
+    <t>MoneyOther</t>
+  </si>
+  <si>
+    <t>Tiền user tự nhập thêm trong form đóng lãi tùy biến</t>
+  </si>
+  <si>
+    <t>KhachHang.ImageList
+HopDong.ImageList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -183,11 +236,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -463,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,37 +537,37 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -513,145 +576,185 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -660,7 +763,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -669,7 +772,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -678,7 +781,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -687,57 +790,62 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D20">
+  <conditionalFormatting sqref="D4:D8 D12:D20">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>EXACT($D4,"Chưa cập nhật")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>EXACT($D4,"Chưa cập nhật")</formula>
+      <formula>EXACT($D9,"Chưa cập nhật")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/Docs/Data.xlsx
+++ b/Docs/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,30 +536,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.85546875" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -620,7 +620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -639,7 +639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
@@ -658,7 +658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
@@ -677,7 +677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -696,7 +696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
@@ -728,7 +728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -741,7 +741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -763,7 +763,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -772,7 +772,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -781,7 +781,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -790,49 +790,49 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>

--- a/Docs/Data.xlsx
+++ b/Docs/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Type</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Thêm cột:
 - CamDo_PrintTemplateType
 - VayLai_PrintTemplateType</t>
-  </si>
-  <si>
-    <t>Chưa cập nhật</t>
   </si>
   <si>
     <t>KhachHang</t>
@@ -526,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,7 +534,7 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,10 +611,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -633,13 +630,13 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
@@ -652,10 +649,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -671,13 +668,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -685,34 +682,34 @@
         <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -722,10 +719,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -735,10 +732,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -748,7 +745,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>4</v>

--- a/Docs/Data.xlsx
+++ b/Docs/Data.xlsx
@@ -523,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,13 +533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>

--- a/Docs/Data.xlsx
+++ b/Docs/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Type</t>
   </si>
@@ -54,45 +54,13 @@
     <t>Cập nhật DB</t>
   </si>
   <si>
-    <t>SoTienCam
--&gt; TongTien float null</t>
-  </si>
-  <si>
-    <t>Lai
--&gt; LaiSuat float not null</t>
-  </si>
-  <si>
-    <t>SoNgayVay
--&gt; TongThoiGianVay</t>
-  </si>
-  <si>
     <t>CuaHang</t>
   </si>
   <si>
-    <t>Thêm cột 
-- UserId nvarchar(128) not null
-(là chủ cửa hàng)</t>
-  </si>
-  <si>
     <t>UserProfile</t>
   </si>
   <si>
-    <t>Xóa cột CuaHangId</t>
-  </si>
-  <si>
-    <t>Đã cập nhật</t>
-  </si>
-  <si>
-    <t>Thêm cột:
-- CamDo_PrintTemplateType
-- VayLai_PrintTemplateType</t>
-  </si>
-  <si>
     <t>KhachHang</t>
-  </si>
-  <si>
-    <t>Thêm cột:
-- ImageList nvarchar(max) null</t>
   </si>
   <si>
     <t>HopDong_TransactionLog.MoneyDebit</t>
@@ -153,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,29 +502,29 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.85546875" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.88671875" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -579,16 +547,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="I4" s="1" t="s">
@@ -598,160 +562,136 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -760,7 +700,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -769,7 +709,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -778,7 +718,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -787,49 +727,49 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
